--- a/Code/Results/Cases/Case_2_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_223/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09118148275184</v>
+        <v>12.25682061283031</v>
       </c>
       <c r="C2">
-        <v>16.00959073859749</v>
+        <v>9.707821550004406</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.15353768532197</v>
+        <v>16.6088673869258</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.040682214327167</v>
+        <v>3.584385311194781</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.494827152238862</v>
+        <v>15.87132767322489</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.05299126496782</v>
+        <v>15.49445252527274</v>
       </c>
       <c r="O2">
-        <v>12.78405386284237</v>
+        <v>16.67332912509209</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72364850646469</v>
+        <v>11.59573960824411</v>
       </c>
       <c r="C3">
-        <v>15.01823039924115</v>
+        <v>9.197241677216487</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.95491772810709</v>
+        <v>15.65914554091905</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.046697147943573</v>
+        <v>3.586552551079531</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.633747881190409</v>
+        <v>15.97839623694138</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.12601080526085</v>
+        <v>15.52777245959841</v>
       </c>
       <c r="O3">
-        <v>12.40899024095534</v>
+        <v>16.69704255660327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83632316856096</v>
+        <v>11.17056138294702</v>
       </c>
       <c r="C4">
-        <v>14.37749324887677</v>
+        <v>8.8671046754313</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.54179250365828</v>
+        <v>15.05055784003633</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.050482241013514</v>
+        <v>3.587951646056756</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.735830666557094</v>
+        <v>16.04889509649628</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.17467174414309</v>
+        <v>15.55004499131614</v>
       </c>
       <c r="O4">
-        <v>12.19428686631048</v>
+        <v>16.71781474913521</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46270338714616</v>
+        <v>10.99261658633563</v>
       </c>
       <c r="C5">
-        <v>14.10833369305776</v>
+        <v>8.728460268027954</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.94969637057326</v>
+        <v>14.7964190552931</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.052048914298656</v>
+        <v>3.588539048831045</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.781323599890083</v>
+        <v>16.07881571445554</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.19544381574149</v>
+        <v>15.55957806933611</v>
       </c>
       <c r="O5">
-        <v>12.11069368860854</v>
+        <v>16.72783268763913</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39993665308162</v>
+        <v>10.96279170436719</v>
       </c>
       <c r="C6">
-        <v>14.06315398870262</v>
+        <v>8.705192622442803</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.85038874809749</v>
+        <v>14.75385783998975</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.05231055283797</v>
+        <v>3.588637630859269</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.789103692173672</v>
+        <v>16.08385585296508</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.19894936307126</v>
+        <v>15.56118864256058</v>
       </c>
       <c r="O6">
-        <v>12.09704778466628</v>
+        <v>16.72958967999038</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.8313331492587</v>
+        <v>11.16818027006864</v>
       </c>
       <c r="C7">
-        <v>14.37389586124958</v>
+        <v>8.865251405484914</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.53387347821614</v>
+        <v>15.04715488214268</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.05050327025172</v>
+        <v>3.587959498010779</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.736428851677074</v>
+        <v>16.04929379728078</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.17494809328148</v>
+        <v>15.55017170709076</v>
       </c>
       <c r="O7">
-        <v>12.1931437449458</v>
+        <v>16.71794357880276</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62951577190201</v>
+        <v>12.03296916709296</v>
       </c>
       <c r="C8">
-        <v>15.67441410800875</v>
+        <v>9.535266287276452</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.40834290279799</v>
+        <v>16.28683054451543</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.042737781889522</v>
+        <v>3.585118415246613</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.539039252807404</v>
+        <v>15.90725442750814</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.07736176896698</v>
+        <v>15.5055651738396</v>
       </c>
       <c r="O8">
-        <v>12.65148952571052</v>
+        <v>16.68021112280664</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78034420093224</v>
+        <v>13.57012586331155</v>
       </c>
       <c r="C9">
-        <v>17.97148257619151</v>
+        <v>10.71463903908721</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.56131134703818</v>
+        <v>18.62900314657128</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.028184299790116</v>
+        <v>3.5800870359641</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.300965183218535</v>
+        <v>15.66668839580697</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.91732601803225</v>
+        <v>15.43245424763818</v>
       </c>
       <c r="O9">
-        <v>13.6743035232875</v>
+        <v>16.65585969934986</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.8710811372056</v>
+        <v>14.59668252658909</v>
       </c>
       <c r="C10">
-        <v>19.50743097536309</v>
+        <v>11.49657926549143</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.07880638886276</v>
+        <v>20.28671341568024</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.017819354695637</v>
+        <v>3.576715798791598</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.240111483920213</v>
+        <v>15.51339904627881</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.82029908929917</v>
+        <v>15.38745481184193</v>
       </c>
       <c r="O10">
-        <v>14.50162143215004</v>
+        <v>16.66863877579193</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.77478728816549</v>
+        <v>15.04048240294008</v>
       </c>
       <c r="C11">
-        <v>20.17415373400434</v>
+        <v>11.83359640740259</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.62744654385945</v>
+        <v>20.99834620173262</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.013154156316327</v>
+        <v>3.575251949781827</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.242541942086802</v>
+        <v>15.44882544197492</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.78097323075521</v>
+        <v>15.36886740162222</v>
       </c>
       <c r="O11">
-        <v>14.9268693375062</v>
+        <v>16.68117406443902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.11030174164954</v>
+        <v>15.20966981783195</v>
       </c>
       <c r="C12">
-        <v>20.42212089781167</v>
+        <v>11.95850784116499</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.20711075660154</v>
+        <v>21.26175338260904</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.011392764248648</v>
+        <v>3.57470759437427</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.248247385004991</v>
+        <v>15.42512092434799</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.76680553456685</v>
+        <v>15.36209894979325</v>
       </c>
       <c r="O12">
-        <v>15.1543053733862</v>
+        <v>16.68689049899634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.03833870368861</v>
+        <v>15.1711819926421</v>
       </c>
       <c r="C13">
-        <v>20.36891547524989</v>
+        <v>11.93172672858955</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.08255996820319</v>
+        <v>21.20529347765094</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.011771913081387</v>
+        <v>3.574824388422434</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.246798523857205</v>
+        <v>15.43019274171641</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.76982405797442</v>
+        <v>15.36354464916194</v>
       </c>
       <c r="O13">
-        <v>15.10538122142968</v>
+        <v>16.68561620631814</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.80252383116734</v>
+        <v>15.05409787559834</v>
       </c>
       <c r="C14">
-        <v>20.19464385681512</v>
+        <v>11.84392735637882</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.67526768799748</v>
+        <v>21.02013838051936</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.013009152976026</v>
+        <v>3.57520696579559</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.242912815228719</v>
+        <v>15.44686022710449</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.7797929403816</v>
+        <v>15.36830514519761</v>
       </c>
       <c r="O14">
-        <v>14.94560709794744</v>
+        <v>16.6816249145303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.65721155395154</v>
+        <v>14.9827613866601</v>
       </c>
       <c r="C15">
-        <v>20.08731367962017</v>
+        <v>11.78979427985758</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.42492757397527</v>
+        <v>20.90593570009642</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.013767615710514</v>
+        <v>3.575442602514714</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.241169425466824</v>
+        <v>15.45716715897793</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.78599446840087</v>
+        <v>15.37125625683894</v>
       </c>
       <c r="O15">
-        <v>14.84756784557406</v>
+        <v>16.67930646839744</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81107782281866</v>
+        <v>14.5672074939014</v>
       </c>
       <c r="C16">
-        <v>19.46322300326372</v>
+        <v>11.47417628281317</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.97661527805569</v>
+        <v>20.23935489847918</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.018125077922249</v>
+        <v>3.576812863342299</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.24059737988085</v>
+        <v>15.5177234215878</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.82296865808938</v>
+        <v>15.38870738468345</v>
       </c>
       <c r="O16">
-        <v>14.47627537356775</v>
+        <v>16.6679551137828</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.27994370134489</v>
+        <v>14.30629600336574</v>
       </c>
       <c r="C17">
-        <v>19.07223190399472</v>
+        <v>11.27575011117826</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.07536089989289</v>
+        <v>19.81957646389536</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.020809691165729</v>
+        <v>3.577671296634238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.248281089420821</v>
+        <v>15.5561983835646</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.84690581432663</v>
+        <v>15.39989496538254</v>
       </c>
       <c r="O17">
-        <v>14.25601044099037</v>
+        <v>16.66271563012744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.96998212013133</v>
+        <v>14.15404674658973</v>
       </c>
       <c r="C18">
-        <v>18.84432668232747</v>
+        <v>11.15986219726162</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.55209502746253</v>
+        <v>19.57413170298703</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.022358632766515</v>
+        <v>3.57817161272799</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.255507190485831</v>
+        <v>15.5788133167221</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.86112471663277</v>
+        <v>15.40650704283418</v>
       </c>
       <c r="O18">
-        <v>14.13088316540833</v>
+        <v>16.66033463103321</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.86426394233146</v>
+        <v>14.10212529480502</v>
       </c>
       <c r="C19">
-        <v>18.76664106248248</v>
+        <v>11.12032329165879</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.37406865980294</v>
+        <v>19.49034039559795</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.022883962076929</v>
+        <v>3.578342140946712</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.258422088512885</v>
+        <v>15.58655348021744</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.86601548903368</v>
+        <v>15.40877624405474</v>
       </c>
       <c r="O19">
-        <v>14.08878521713694</v>
+        <v>16.65963700551632</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.33694539974696</v>
+        <v>14.33429653285208</v>
       </c>
       <c r="C20">
-        <v>19.11416524863175</v>
+        <v>11.29705508324777</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.17180255151427</v>
+        <v>19.864676260453</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.020523423773839</v>
+        <v>3.577579235594593</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.247169388112228</v>
+        <v>15.55205240139576</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84431077269288</v>
+        <v>15.39868568504965</v>
       </c>
       <c r="O20">
-        <v>14.27929609409375</v>
+        <v>16.66320788320108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.87196922249014</v>
+        <v>15.08818563130435</v>
       </c>
       <c r="C21">
-        <v>20.24595312305561</v>
+        <v>11.86978984503988</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.79507766567404</v>
+        <v>21.07468746153428</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.012645620741048</v>
+        <v>3.575094323348051</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.243920635225598</v>
+        <v>15.44194422805212</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.77684491697685</v>
+        <v>15.36689954367863</v>
       </c>
       <c r="O21">
-        <v>14.99257243530223</v>
+        <v>16.68277092204989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.83620921399596</v>
+        <v>15.59688974759206</v>
       </c>
       <c r="C22">
-        <v>20.95943191511916</v>
+        <v>12.22830494184159</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.47042011497372</v>
+        <v>21.83011900286271</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.00752635251078</v>
+        <v>3.573528390510349</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.26990030202081</v>
+        <v>15.37434575252875</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.73698956487062</v>
+        <v>15.34770011005638</v>
       </c>
       <c r="O22">
-        <v>15.65216715879898</v>
+        <v>16.70120847100127</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.32510229463091</v>
+        <v>15.32444405073597</v>
       </c>
       <c r="C23">
-        <v>20.58099760056331</v>
+        <v>12.03841018921522</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.57960731039484</v>
+        <v>21.43015709307209</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.010256625688806</v>
+        <v>3.574358860725897</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.25331226724423</v>
+        <v>15.41002293106569</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.75786216157756</v>
+        <v>15.3578033206665</v>
       </c>
       <c r="O23">
-        <v>15.30080039438771</v>
+        <v>16.69085020799722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.31118928543762</v>
+        <v>14.32164449034618</v>
       </c>
       <c r="C24">
-        <v>19.09521690607819</v>
+        <v>11.2874287417499</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.12821728355816</v>
+        <v>19.84429944298684</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.020652827918405</v>
+        <v>3.577620835230173</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.247663274484012</v>
+        <v>15.55392525789461</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.84548256962431</v>
+        <v>15.39923183933031</v>
       </c>
       <c r="O24">
-        <v>14.26876396130072</v>
+        <v>16.66298336940789</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9677127668169</v>
+        <v>13.17197918975378</v>
       </c>
       <c r="C25">
-        <v>17.37696333029881</v>
+        <v>10.41028946964173</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.21651230510847</v>
+        <v>17.98064983371976</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.032057342815964</v>
+        <v>3.581390750072044</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.34709907055948</v>
+        <v>15.72767171625578</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.95712295063077</v>
+        <v>15.45069931474101</v>
       </c>
       <c r="O25">
-        <v>13.38430103245762</v>
+        <v>16.65708621460956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_223/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.25682061283031</v>
+        <v>21.09118148275179</v>
       </c>
       <c r="C2">
-        <v>9.707821550004406</v>
+        <v>16.00959073859749</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.6088673869258</v>
+        <v>30.15353768532197</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.584385311194781</v>
+        <v>2.040682214327302</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.87132767322489</v>
+        <v>9.494827152239036</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.49445252527274</v>
+        <v>11.05299126496791</v>
       </c>
       <c r="O2">
-        <v>16.67332912509209</v>
+        <v>12.7840538628425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59573960824411</v>
+        <v>19.72364850646473</v>
       </c>
       <c r="C3">
-        <v>9.197241677216487</v>
+        <v>15.01823039924116</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.65914554091905</v>
+        <v>27.95491772810706</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.586552551079531</v>
+        <v>2.046697147943841</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.97839623694138</v>
+        <v>9.633747881190418</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.52777245959841</v>
+        <v>11.12601080526088</v>
       </c>
       <c r="O3">
-        <v>16.69704255660327</v>
+        <v>12.40899024095535</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.17056138294702</v>
+        <v>18.83632316856095</v>
       </c>
       <c r="C4">
-        <v>8.8671046754313</v>
+        <v>14.37749324887677</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.05055784003633</v>
+        <v>26.54179250365831</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.587951646056756</v>
+        <v>2.05048224101338</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.04889509649628</v>
+        <v>9.735830666557055</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.55004499131614</v>
+        <v>11.17467174414305</v>
       </c>
       <c r="O4">
-        <v>16.71781474913521</v>
+        <v>12.19428686631043</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99261658633563</v>
+        <v>18.46270338714609</v>
       </c>
       <c r="C5">
-        <v>8.728460268027954</v>
+        <v>14.10833369305787</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.7964190552931</v>
+        <v>25.94969637057317</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.588539048831045</v>
+        <v>2.052048914298656</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.07881571445554</v>
+        <v>9.781323599890259</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.55957806933611</v>
+        <v>11.19544381574161</v>
       </c>
       <c r="O5">
-        <v>16.72783268763913</v>
+        <v>12.11069368860864</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.96279170436719</v>
+        <v>18.39993665308162</v>
       </c>
       <c r="C6">
-        <v>8.705192622442803</v>
+        <v>14.0631539887026</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.75385783998975</v>
+        <v>25.85038874809741</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.588637630859269</v>
+        <v>2.052310552838104</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.08385585296508</v>
+        <v>9.789103692173661</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.56118864256058</v>
+        <v>11.19894936307126</v>
       </c>
       <c r="O6">
-        <v>16.72958967999038</v>
+        <v>12.09704778466626</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.16818027006864</v>
+        <v>18.83133314925869</v>
       </c>
       <c r="C7">
-        <v>8.865251405484914</v>
+        <v>14.37389586124958</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.04715488214268</v>
+        <v>26.5338734782161</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.587959498010779</v>
+        <v>2.05050327025172</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.04929379728078</v>
+        <v>9.736428851677163</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.55017170709076</v>
+        <v>11.17494809328151</v>
       </c>
       <c r="O7">
-        <v>16.71794357880276</v>
+        <v>12.19314374494588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.03296916709296</v>
+        <v>20.62951577190194</v>
       </c>
       <c r="C8">
-        <v>9.535266287276452</v>
+        <v>15.67441410800875</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.28683054451543</v>
+        <v>29.40834290279788</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.585118415246613</v>
+        <v>2.042737781889655</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.90725442750814</v>
+        <v>9.539039252807548</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.5055651738396</v>
+        <v>11.07736176896707</v>
       </c>
       <c r="O8">
-        <v>16.68021112280664</v>
+        <v>12.65148952571063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.57012586331155</v>
+        <v>23.78034420093233</v>
       </c>
       <c r="C9">
-        <v>10.71463903908721</v>
+        <v>17.97148257619145</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.62900314657128</v>
+        <v>34.56131134703823</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.5800870359641</v>
+        <v>2.028184299790116</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.66668839580697</v>
+        <v>9.300965183218473</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.43245424763818</v>
+        <v>10.91732601803225</v>
       </c>
       <c r="O9">
-        <v>16.65585969934986</v>
+        <v>13.67430352328747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.59668252658909</v>
+        <v>25.87108113720561</v>
       </c>
       <c r="C10">
-        <v>11.49657926549143</v>
+        <v>19.50743097536313</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.28671341568024</v>
+        <v>38.07880638886269</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.576715798791598</v>
+        <v>2.017819354695504</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.51339904627881</v>
+        <v>9.240111483920336</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.38745481184193</v>
+        <v>10.82029908929928</v>
       </c>
       <c r="O10">
-        <v>16.66863877579193</v>
+        <v>14.50162143215009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.04048240294008</v>
+        <v>26.77478728816555</v>
       </c>
       <c r="C11">
-        <v>11.83359640740259</v>
+        <v>20.17415373400425</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.99834620173262</v>
+        <v>39.62744654385943</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.575251949781827</v>
+        <v>2.013154156316192</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.44882544197492</v>
+        <v>9.242541942086802</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.36886740162222</v>
+        <v>10.78097323075522</v>
       </c>
       <c r="O11">
-        <v>16.68117406443902</v>
+        <v>14.92686933750622</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.20966981783195</v>
+        <v>27.11030174164961</v>
       </c>
       <c r="C12">
-        <v>11.95850784116499</v>
+        <v>20.42212089781169</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.26175338260904</v>
+        <v>40.20711075660164</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.57470759437427</v>
+        <v>2.011392764248646</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.42512092434799</v>
+        <v>9.248247385005017</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.36209894979325</v>
+        <v>10.76680553456684</v>
       </c>
       <c r="O12">
-        <v>16.68689049899634</v>
+        <v>15.15430537338627</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.1711819926421</v>
+        <v>27.03833870368867</v>
       </c>
       <c r="C13">
-        <v>11.93172672858955</v>
+        <v>20.3689154752498</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.20529347765094</v>
+        <v>40.08255996820314</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.574824388422434</v>
+        <v>2.011771913081252</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.43019274171641</v>
+        <v>9.246798523857242</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.36354464916194</v>
+        <v>10.76982405797451</v>
       </c>
       <c r="O13">
-        <v>16.68561620631814</v>
+        <v>15.10538122142965</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.05409787559834</v>
+        <v>26.8025238311673</v>
       </c>
       <c r="C14">
-        <v>11.84392735637882</v>
+        <v>20.19464385681501</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.02013838051936</v>
+        <v>39.67526768799745</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.57520696579559</v>
+        <v>2.013009152975757</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.44686022710449</v>
+        <v>9.242912815228726</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.36830514519761</v>
+        <v>10.77979294038156</v>
       </c>
       <c r="O14">
-        <v>16.6816249145303</v>
+        <v>14.94560709794743</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.9827613866601</v>
+        <v>26.65721155395156</v>
       </c>
       <c r="C15">
-        <v>11.78979427985758</v>
+        <v>20.08731367962027</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.90593570009642</v>
+        <v>39.42492757397529</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.575442602514714</v>
+        <v>2.013767615710648</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.45716715897793</v>
+        <v>9.241169425466785</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.37125625683894</v>
+        <v>10.78599446840083</v>
       </c>
       <c r="O15">
-        <v>16.67930646839744</v>
+        <v>14.84756784557412</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.5672074939014</v>
+        <v>25.81107782281864</v>
       </c>
       <c r="C16">
-        <v>11.47417628281317</v>
+        <v>19.46322300326377</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.23935489847918</v>
+        <v>37.9766152780557</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.576812863342299</v>
+        <v>2.018125077922249</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.5177234215878</v>
+        <v>9.240597379880892</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.38870738468345</v>
+        <v>10.82296865808941</v>
       </c>
       <c r="O16">
-        <v>16.6679551137828</v>
+        <v>14.47627537356776</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.30629600336574</v>
+        <v>25.27994370134493</v>
       </c>
       <c r="C17">
-        <v>11.27575011117826</v>
+        <v>19.07223190399475</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.81957646389536</v>
+        <v>37.07536089989299</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.577671296634238</v>
+        <v>2.020809691165997</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.5561983835646</v>
+        <v>9.248281089420789</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.39989496538254</v>
+        <v>10.84690581432663</v>
       </c>
       <c r="O17">
-        <v>16.66271563012744</v>
+        <v>14.25601044099039</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.15404674658973</v>
+        <v>24.96998212013123</v>
       </c>
       <c r="C18">
-        <v>11.15986219726162</v>
+        <v>18.84432668232769</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.57413170298703</v>
+        <v>36.55209502746243</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.57817161272799</v>
+        <v>2.022358632766381</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.5788133167221</v>
+        <v>9.255507190486039</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.40650704283418</v>
+        <v>10.86112471663281</v>
       </c>
       <c r="O18">
-        <v>16.66033463103321</v>
+        <v>14.13088316540843</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.10212529480502</v>
+        <v>24.86426394233152</v>
       </c>
       <c r="C19">
-        <v>11.12032329165879</v>
+        <v>18.76664106248242</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.49034039559795</v>
+        <v>36.37406865980296</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.578342140946712</v>
+        <v>2.022883962077063</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.58655348021744</v>
+        <v>9.258422088512837</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.40877624405474</v>
+        <v>10.86601548903364</v>
       </c>
       <c r="O19">
-        <v>16.65963700551632</v>
+        <v>14.08878521713693</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.33429653285208</v>
+        <v>25.3369453997469</v>
       </c>
       <c r="C20">
-        <v>11.29705508324777</v>
+        <v>19.11416524863172</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.864676260453</v>
+        <v>37.17180255151425</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.577579235594593</v>
+        <v>2.020523423774109</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.55205240139576</v>
+        <v>9.247169388112301</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.39868568504965</v>
+        <v>10.8443107726929</v>
       </c>
       <c r="O20">
-        <v>16.66320788320108</v>
+        <v>14.27929609409379</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.08818563130435</v>
+        <v>26.8719692224902</v>
       </c>
       <c r="C21">
-        <v>11.86978984503988</v>
+        <v>20.24595312305568</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.07468746153428</v>
+        <v>39.79507766567402</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.575094323348051</v>
+        <v>2.012645620741049</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.44194422805212</v>
+        <v>9.243920635225637</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.36689954367863</v>
+        <v>10.77684491697686</v>
       </c>
       <c r="O21">
-        <v>16.68277092204989</v>
+        <v>14.99257243530227</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.59688974759206</v>
+        <v>27.83620921399594</v>
       </c>
       <c r="C22">
-        <v>12.22830494184159</v>
+        <v>20.95943191511902</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.83011900286271</v>
+        <v>41.47042011497362</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.573528390510349</v>
+        <v>2.007526352510643</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.37434575252875</v>
+        <v>9.26990030202087</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.34770011005638</v>
+        <v>10.73698956487071</v>
       </c>
       <c r="O22">
-        <v>16.70120847100127</v>
+        <v>15.65216715879891</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.32444405073597</v>
+        <v>27.32510229463087</v>
       </c>
       <c r="C23">
-        <v>12.03841018921522</v>
+        <v>20.58099760056326</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.43015709307209</v>
+        <v>40.57960731039489</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.574358860725897</v>
+        <v>2.010256625688807</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.41002293106569</v>
+        <v>9.25331226724423</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.3578033206665</v>
+        <v>10.75786216157753</v>
       </c>
       <c r="O23">
-        <v>16.69085020799722</v>
+        <v>15.30080039438769</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.32164449034618</v>
+        <v>25.31118928543755</v>
       </c>
       <c r="C24">
-        <v>11.2874287417499</v>
+        <v>19.09521690607817</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.84429944298684</v>
+        <v>37.12821728355804</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.577620835230173</v>
+        <v>2.020652827918405</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.55392525789461</v>
+        <v>9.247663274484133</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.39923183933031</v>
+        <v>10.84548256962433</v>
       </c>
       <c r="O24">
-        <v>16.66298336940789</v>
+        <v>14.26876396130077</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17197918975378</v>
+        <v>22.9677127668169</v>
       </c>
       <c r="C25">
-        <v>10.41028946964173</v>
+        <v>17.37696333029876</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.98064983371976</v>
+        <v>33.21651230510847</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.581390750072044</v>
+        <v>2.032057342815965</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.72767171625578</v>
+        <v>9.347099070559484</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.45069931474101</v>
+        <v>10.95712295063076</v>
       </c>
       <c r="O25">
-        <v>16.65708621460956</v>
+        <v>13.38430103245769</v>
       </c>
     </row>
   </sheetData>
